--- a/EELE565_Parallel_Image_Filter/Test Data.xlsx
+++ b/EELE565_Parallel_Image_Filter/Test Data.xlsx
@@ -74,10 +74,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -106,7 +106,26 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="1"/>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Runtime vs Number of Threads</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
@@ -126,9 +145,6 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
           <c:xVal>
             <c:numRef>
               <c:f>Sheet1!$A$3:$A$21</c:f>
@@ -247,16 +263,16 @@
                   <c:v>12.898666666666665</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>14.853</c:v>
+                  <c:v>14.097000000000001</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>16.702000000000002</c:v>
+                  <c:v>16.206</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>17.940999999999999</c:v>
+                  <c:v>18.683333333333334</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>22.120999999999999</c:v>
+                  <c:v>23.46466666666667</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -277,9 +293,6 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
           <c:xVal>
             <c:numRef>
               <c:f>Sheet1!$A$3:$A$21</c:f>
@@ -353,46 +366,55 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>59.085999999999999</c:v>
+                  <c:v>58.28</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>46.389499999999998</c:v>
+                  <c:v>44.669333333333327</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>37.501999999999995</c:v>
+                  <c:v>36.619</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>35.2395</c:v>
+                  <c:v>35.863333333333337</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>33.844999999999999</c:v>
+                  <c:v>34.312000000000005</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>33.757999999999996</c:v>
+                  <c:v>34.095666666666666</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>35.20066666666667</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>34.840000000000003</c:v>
+                  <c:v>35.863000000000007</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>34.090500000000006</c:v>
+                  <c:v>33.688000000000009</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>33.426500000000004</c:v>
+                  <c:v>33.201000000000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>33.867000000000004</c:v>
+                  <c:v>33.292000000000002</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>34.026000000000003</c:v>
+                  <c:v>33.028666666666659</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>33.174500000000002</c:v>
+                  <c:v>32.94166666666667</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>33.116999999999997</c:v>
+                  <c:v>32.646999999999998</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>33.243333333333332</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>39.387</c:v>
@@ -413,30 +435,49 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="119235712"/>
-        <c:axId val="119237248"/>
+        <c:axId val="63201280"/>
+        <c:axId val="197599232"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="119235712"/>
+        <c:axId val="63201280"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
-          <c:max val="1024"/>
+          <c:max val="1100"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:majorGridlines/>
         <c:minorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number of Threads</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="119237248"/>
+        <c:crossAx val="197599232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="119237248"/>
+        <c:axId val="197599232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -444,11 +485,30 @@
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:minorGridlines/>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Runtime (sec)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="119235712"/>
+        <c:crossAx val="63201280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -798,24 +858,24 @@
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H10" sqref="H10"/>
+      <selection pane="bottomRight" activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="G1" s="1" t="s">
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -850,203 +910,215 @@
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="1">
         <v>35.795999999999999</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="1">
         <v>35.545999999999999</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="1">
         <v>35.639000000000003</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="1">
         <f>AVERAGE(B3:D3)</f>
         <v>35.660333333333334</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3" s="1">
         <v>59.13</v>
       </c>
-      <c r="H3" s="2">
+      <c r="H3" s="1">
         <v>59.042000000000002</v>
       </c>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2">
+      <c r="I3" s="1">
+        <v>56.667999999999999</v>
+      </c>
+      <c r="J3" s="1">
         <f>AVERAGE(G3:I3)</f>
-        <v>59.085999999999999</v>
+        <v>58.28</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="1">
         <v>20.286000000000001</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="1">
         <v>20.2</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="1">
         <v>20.263000000000002</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="1">
         <f t="shared" ref="E4:E21" si="0">AVERAGE(B4:D4)</f>
         <v>20.24966666666667</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4" s="1">
         <v>46.487000000000002</v>
       </c>
-      <c r="H4" s="2">
+      <c r="H4" s="1">
         <v>46.292000000000002</v>
       </c>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2">
+      <c r="I4" s="1">
+        <v>41.228999999999999</v>
+      </c>
+      <c r="J4" s="1">
         <f t="shared" ref="J4:J21" si="1">AVERAGE(G4:I4)</f>
-        <v>46.389499999999998</v>
+        <v>44.669333333333327</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="1">
         <v>17.288</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="1">
         <v>16.745999999999999</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="1">
         <v>16.995999999999999</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="1">
         <f t="shared" si="0"/>
         <v>17.010000000000002</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5" s="1">
         <v>37.332000000000001</v>
       </c>
-      <c r="H5" s="2">
+      <c r="H5" s="1">
         <v>37.671999999999997</v>
       </c>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2">
+      <c r="I5" s="1">
+        <v>34.853000000000002</v>
+      </c>
+      <c r="J5" s="1">
         <f t="shared" si="1"/>
-        <v>37.501999999999995</v>
+        <v>36.619</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="1">
         <v>14.361000000000001</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="1">
         <v>14.827</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="1">
         <v>14.346</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="1">
         <f t="shared" si="0"/>
         <v>14.511333333333335</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G6" s="1">
         <v>35.121000000000002</v>
       </c>
-      <c r="H6" s="2">
+      <c r="H6" s="1">
         <v>35.357999999999997</v>
       </c>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2">
+      <c r="I6" s="1">
+        <v>37.110999999999997</v>
+      </c>
+      <c r="J6" s="1">
         <f t="shared" si="1"/>
-        <v>35.2395</v>
+        <v>35.863333333333337</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="1">
         <v>13.316000000000001</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="1">
         <v>13.353</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="1">
         <v>14.199</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="1">
         <f t="shared" si="0"/>
         <v>13.622666666666667</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G7" s="1">
         <v>34.122</v>
       </c>
-      <c r="H7" s="2">
+      <c r="H7" s="1">
         <v>33.567999999999998</v>
       </c>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2">
+      <c r="I7" s="1">
+        <v>35.246000000000002</v>
+      </c>
+      <c r="J7" s="1">
         <f t="shared" si="1"/>
-        <v>33.844999999999999</v>
+        <v>34.312000000000005</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="1">
         <v>12.765000000000001</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="1">
         <v>12.775</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="1">
         <v>12.702999999999999</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="1">
         <f t="shared" si="0"/>
         <v>12.747666666666666</v>
       </c>
-      <c r="G8" s="2">
+      <c r="G8" s="1">
         <v>33.543999999999997</v>
       </c>
-      <c r="H8" s="2">
+      <c r="H8" s="1">
         <v>33.972000000000001</v>
       </c>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2">
+      <c r="I8" s="1">
+        <v>34.771000000000001</v>
+      </c>
+      <c r="J8" s="1">
         <f>AVERAGE(G8:I8)</f>
-        <v>33.757999999999996</v>
+        <v>34.095666666666666</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="1">
         <v>12.403</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="1">
         <v>12.345000000000001</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="1">
         <v>12.215</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="1">
         <f t="shared" si="0"/>
         <v>12.321</v>
       </c>
-      <c r="G9" s="2">
+      <c r="G9" s="1">
         <v>34.444000000000003</v>
       </c>
-      <c r="H9" s="2">
+      <c r="H9" s="1">
         <v>35.438000000000002</v>
       </c>
-      <c r="I9" s="2">
+      <c r="I9" s="1">
         <v>35.72</v>
       </c>
-      <c r="J9" s="2">
+      <c r="J9" s="1">
         <f t="shared" si="1"/>
         <v>35.20066666666667</v>
       </c>
@@ -1055,265 +1127,315 @@
       <c r="A10">
         <v>8</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="1">
         <v>12.231999999999999</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="1">
         <v>11.912000000000001</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="1">
         <v>11.976000000000001</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="1">
         <f t="shared" si="0"/>
         <v>12.04</v>
       </c>
-      <c r="G10" s="2">
+      <c r="G10" s="1">
         <v>34.840000000000003</v>
       </c>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2">
+      <c r="H10" s="1">
+        <v>37.192</v>
+      </c>
+      <c r="I10" s="1">
+        <v>35.557000000000002</v>
+      </c>
+      <c r="J10" s="1">
         <f t="shared" si="1"/>
-        <v>34.840000000000003</v>
+        <v>35.863000000000007</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="1">
         <v>13.051</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="1">
         <v>12.977</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="1">
         <v>12.721</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11" s="1">
         <f t="shared" si="0"/>
         <v>12.916333333333332</v>
       </c>
-      <c r="G11" s="2">
+      <c r="G11" s="1">
         <v>33.395000000000003</v>
       </c>
-      <c r="H11" s="2">
+      <c r="H11" s="1">
         <v>34.786000000000001</v>
       </c>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2">
+      <c r="I11" s="1">
+        <v>32.883000000000003</v>
+      </c>
+      <c r="J11" s="1">
         <f t="shared" si="1"/>
-        <v>34.090500000000006</v>
+        <v>33.688000000000009</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" s="1">
         <v>12.778</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12" s="1">
         <v>12.548</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12" s="1">
         <v>12.597</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E12" s="1">
         <f t="shared" si="0"/>
         <v>12.641</v>
       </c>
-      <c r="G12" s="2">
+      <c r="G12" s="1">
         <v>32.783000000000001</v>
       </c>
-      <c r="H12" s="2">
+      <c r="H12" s="1">
         <v>34.07</v>
       </c>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2">
+      <c r="I12" s="1">
+        <v>32.75</v>
+      </c>
+      <c r="J12" s="1">
         <f t="shared" si="1"/>
-        <v>33.426500000000004</v>
+        <v>33.201000000000001</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13" s="1">
         <v>12.577</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13" s="1">
         <v>12.875</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13" s="1">
         <v>12.682</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E13" s="1">
         <f t="shared" si="0"/>
         <v>12.711333333333334</v>
       </c>
-      <c r="G13" s="2">
+      <c r="G13" s="1">
         <v>33.865000000000002</v>
       </c>
-      <c r="H13" s="2">
+      <c r="H13" s="1">
         <v>33.869</v>
       </c>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2">
+      <c r="I13" s="1">
+        <v>32.142000000000003</v>
+      </c>
+      <c r="J13" s="1">
         <f t="shared" si="1"/>
-        <v>33.867000000000004</v>
+        <v>33.292000000000002</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>16</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14" s="1">
         <v>12.457000000000001</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14" s="1">
         <v>12.516999999999999</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14" s="1">
         <v>12.426</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E14" s="1">
         <f t="shared" si="0"/>
         <v>12.466666666666667</v>
       </c>
-      <c r="G14" s="2">
+      <c r="G14" s="1">
         <v>34.026000000000003</v>
       </c>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2">
+      <c r="H14" s="1">
+        <v>32.204999999999998</v>
+      </c>
+      <c r="I14" s="1">
+        <v>32.854999999999997</v>
+      </c>
+      <c r="J14" s="1">
         <f t="shared" si="1"/>
-        <v>34.026000000000003</v>
+        <v>33.028666666666659</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>24</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B15" s="1">
         <v>12.571</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C15" s="1">
         <v>12.757999999999999</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D15" s="1">
         <v>12.638</v>
       </c>
-      <c r="E15" s="2">
+      <c r="E15" s="1">
         <f t="shared" si="0"/>
         <v>12.655666666666667</v>
       </c>
-      <c r="G15" s="2">
+      <c r="G15" s="1">
         <v>33.646000000000001</v>
       </c>
-      <c r="H15" s="2">
+      <c r="H15" s="1">
         <v>32.703000000000003</v>
       </c>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2">
+      <c r="I15" s="1">
+        <v>32.475999999999999</v>
+      </c>
+      <c r="J15" s="1">
         <f t="shared" si="1"/>
-        <v>33.174500000000002</v>
+        <v>32.94166666666667</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>32</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B16" s="1">
         <v>12.933</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C16" s="1">
         <v>12.743</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D16" s="1">
         <v>12.933</v>
       </c>
-      <c r="E16" s="2">
+      <c r="E16" s="1">
         <f t="shared" si="0"/>
         <v>12.869666666666667</v>
       </c>
-      <c r="G16" s="2">
+      <c r="G16" s="1">
         <v>33.116999999999997</v>
       </c>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2">
+      <c r="H16" s="1">
+        <v>33.104999999999997</v>
+      </c>
+      <c r="I16" s="1">
+        <v>31.719000000000001</v>
+      </c>
+      <c r="J16" s="1">
         <f t="shared" si="1"/>
-        <v>33.116999999999997</v>
+        <v>32.646999999999998</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>64</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B17" s="1">
         <v>13.12</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C17" s="1">
         <v>12.275</v>
       </c>
-      <c r="D17" s="2">
+      <c r="D17" s="1">
         <v>13.301</v>
       </c>
-      <c r="E17" s="2">
+      <c r="E17" s="1">
         <f t="shared" si="0"/>
         <v>12.898666666666665</v>
       </c>
-      <c r="J17" s="2"/>
+      <c r="G17" s="1">
+        <v>33.200000000000003</v>
+      </c>
+      <c r="H17" s="1">
+        <v>32.795000000000002</v>
+      </c>
+      <c r="I17" s="1">
+        <v>33.734999999999999</v>
+      </c>
+      <c r="J17" s="1">
+        <f t="shared" si="1"/>
+        <v>33.243333333333332</v>
+      </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>128</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B18" s="1">
         <v>14.853</v>
       </c>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2">
-        <f t="shared" si="0"/>
-        <v>14.853</v>
-      </c>
-      <c r="J18" s="2"/>
+      <c r="C18" s="1">
+        <v>13.814</v>
+      </c>
+      <c r="D18" s="1">
+        <v>13.624000000000001</v>
+      </c>
+      <c r="E18" s="1">
+        <f t="shared" si="0"/>
+        <v>14.097000000000001</v>
+      </c>
+      <c r="J18" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>256</v>
       </c>
-      <c r="B19" s="2">
+      <c r="B19" s="1">
         <v>16.702000000000002</v>
       </c>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2">
-        <f t="shared" si="0"/>
-        <v>16.702000000000002</v>
-      </c>
-      <c r="J19" s="2"/>
+      <c r="C19" s="1">
+        <v>16.512</v>
+      </c>
+      <c r="D19" s="1">
+        <v>15.404</v>
+      </c>
+      <c r="E19" s="1">
+        <f t="shared" si="0"/>
+        <v>16.206</v>
+      </c>
+      <c r="J19" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>512</v>
       </c>
-      <c r="B20" s="2">
+      <c r="B20" s="1">
         <v>17.940999999999999</v>
       </c>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2">
-        <f t="shared" si="0"/>
-        <v>17.940999999999999</v>
+      <c r="C20" s="1">
+        <v>19.359000000000002</v>
+      </c>
+      <c r="D20" s="1">
+        <v>18.75</v>
+      </c>
+      <c r="E20" s="1">
+        <f t="shared" si="0"/>
+        <v>18.683333333333334</v>
       </c>
       <c r="G20">
         <v>39.387</v>
       </c>
-      <c r="J20" s="2">
+      <c r="J20" s="1">
         <f t="shared" si="1"/>
         <v>39.387</v>
       </c>
@@ -1322,17 +1444,23 @@
       <c r="A21">
         <v>1024</v>
       </c>
-      <c r="B21" s="2">
+      <c r="B21" s="1">
         <v>22.120999999999999</v>
       </c>
-      <c r="E21" s="2">
-        <f t="shared" si="0"/>
-        <v>22.120999999999999</v>
+      <c r="C21">
+        <v>24.289000000000001</v>
+      </c>
+      <c r="D21">
+        <v>23.984000000000002</v>
+      </c>
+      <c r="E21" s="1">
+        <f t="shared" si="0"/>
+        <v>23.46466666666667</v>
       </c>
       <c r="G21">
         <v>41.231999999999999</v>
       </c>
-      <c r="J21" s="2">
+      <c r="J21" s="1">
         <f t="shared" si="1"/>
         <v>41.231999999999999</v>
       </c>
